--- a/Data/Actor_3000.xlsx
+++ b/Data/Actor_3000.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghoon.joo\Desktop\MidBBang\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6AB1F-FB52-4F9C-B5C6-0DE7B0739CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="525" windowWidth="23355" windowHeight="15540"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actor" sheetId="1" r:id="rId1"/>
@@ -19,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>krafton</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -180,7 +186,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -540,41 +546,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="19.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" style="5" customWidth="1"/>
     <col min="8" max="8" width="14.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="33.625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="76.375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="33.58203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="76.33203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="67.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="28.875" style="5" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" style="5" customWidth="1"/>
     <col min="13" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +618,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>3999</v>
       </c>
@@ -648,7 +654,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="4">
         <v>3000</v>
       </c>
@@ -665,7 +671,7 @@
         <v>200</v>
       </c>
       <c r="F3" s="4">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4">
         <v>3</v>
@@ -686,7 +692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="4">
         <v>3001</v>
       </c>
@@ -703,7 +709,7 @@
         <v>150</v>
       </c>
       <c r="F4" s="4">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="G4" s="4">
         <v>3</v>
@@ -724,7 +730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="4">
         <v>3002</v>
       </c>
@@ -741,7 +747,7 @@
         <v>350</v>
       </c>
       <c r="F5" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G5" s="4">
         <v>3</v>
@@ -762,7 +768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>3003</v>
       </c>
@@ -779,7 +785,7 @@
         <v>3000</v>
       </c>
       <c r="F6" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G6" s="5">
         <v>0</v>
@@ -800,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>3004</v>
       </c>
@@ -817,7 +823,7 @@
         <v>2000</v>
       </c>
       <c r="F7" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G7" s="5">
         <v>0</v>

--- a/Data/Actor_3000.xlsx
+++ b/Data/Actor_3000.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghoon.joo\Desktop\MidBBang\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B6AB1F-FB52-4F9C-B5C6-0DE7B0739CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-113" yWindow="-113" windowWidth="28995" windowHeight="16395"/>
   </bookViews>
   <sheets>
     <sheet name="Actor" sheetId="1" r:id="rId1"/>
@@ -25,12 +19,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>krafton</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,13 +174,21 @@
   </si>
   <si>
     <t>Dragon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackDamage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -546,41 +548,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="19.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.3125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" style="5" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.75" style="5" customWidth="1"/>
-    <col min="9" max="9" width="33.58203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="76.33203125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="67.75" style="5" customWidth="1"/>
-    <col min="12" max="12" width="28.83203125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="5"/>
+    <col min="6" max="6" width="5.8125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="17.5625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="33.5625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="76.3125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="67.75" style="5" customWidth="1"/>
+    <col min="14" max="14" width="28.8125" style="5" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -603,22 +607,28 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A2" s="4">
         <v>3999</v>
       </c>
@@ -641,20 +651,26 @@
         <v>5</v>
       </c>
       <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>50</v>
+      </c>
+      <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="4">
+      <c r="N2" s="4">
         <v>4.5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A3" s="4">
         <v>3000</v>
       </c>
@@ -679,20 +695,26 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4">
+        <v>10</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L3" s="4">
+      <c r="N3" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A4" s="4">
         <v>3001</v>
       </c>
@@ -715,22 +737,28 @@
         <v>3</v>
       </c>
       <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>15</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4">
+      <c r="N4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A5" s="4">
         <v>3002</v>
       </c>
@@ -753,22 +781,28 @@
         <v>3</v>
       </c>
       <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>20</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A6" s="5">
         <v>3003</v>
       </c>
@@ -791,22 +825,28 @@
         <v>0</v>
       </c>
       <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>100</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="5">
+      <c r="N6" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.6">
       <c r="A7" s="5">
         <v>3004</v>
       </c>
@@ -829,18 +869,24 @@
         <v>0</v>
       </c>
       <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>80</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L7" s="5">
+      <c r="N7" s="5">
         <v>7</v>
       </c>
     </row>
